--- a/User story.xlsx
+++ b/User story.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>USER STORY</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Validate User</t>
   </si>
   <si>
-    <t>Sort / Valid contacts</t>
-  </si>
-  <si>
     <t>Release</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Dowloaded Data (text / media)</t>
   </si>
   <si>
-    <t>Send data ( text / media )</t>
-  </si>
-  <si>
     <t>Received Data (text / media)</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
   </si>
   <si>
     <t>Show all Received text or media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take media from user gallery and send or send text </t>
   </si>
   <si>
     <r>
@@ -120,6 +111,45 @@
       </rPr>
       <t xml:space="preserve"> - MOBILE AD HOC NETWORK IMPLEMENTATION FOR ANDROID SMARTPHONES)</t>
     </r>
+  </si>
+  <si>
+    <t>Split data (media) into small units</t>
+  </si>
+  <si>
+    <t>Send data ( text )</t>
+  </si>
+  <si>
+    <t>Send small units of media to active peer nodes</t>
+  </si>
+  <si>
+    <t>Transfer unit media from reciever node through peer to peer node</t>
+  </si>
+  <si>
+    <t>Combine incoming units of data and show to user</t>
+  </si>
+  <si>
+    <t>Notify missed calls</t>
+  </si>
+  <si>
+    <t>Receive calls</t>
+  </si>
+  <si>
+    <t>Outgoing call</t>
+  </si>
+  <si>
+    <t>Show Sorted / Valid contacts</t>
+  </si>
+  <si>
+    <t>Select contact</t>
+  </si>
+  <si>
+    <t>Take media from user gallery and send</t>
+  </si>
+  <si>
+    <t>Selected Contact Chat window (text / media /call )</t>
+  </si>
+  <si>
+    <t>User can input text message through smartphone keyboard</t>
   </si>
 </sst>
 </file>
@@ -207,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -279,88 +309,132 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -369,7 +443,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -380,8 +454,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -394,7 +481,7 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -410,7 +497,49 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -420,90 +549,49 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -520,96 +608,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,8 +747,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFEAEAEA"/>
       <color rgb="FFC0C0C0"/>
-      <color rgb="FFEAEAEA"/>
     </mruColors>
   </colors>
   <extLst>
@@ -925,45 +1025,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:O21"/>
+  <dimension ref="E4:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="56.42578125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="17"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="18"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="20"/>
+      <c r="E7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -973,168 +1073,221 @@
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="19"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="20"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="21"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="22"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="5:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="26" t="s">
+    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="33"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="27"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="13" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E13" s="25">
+      <c r="E13" s="31">
         <v>2</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="26" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="35"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E14" s="27"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="26" t="s">
+    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="33"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E16" s="31">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E15" s="25">
-        <v>3</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="35"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="35"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="35"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="35"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="33"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="31">
         <v>4</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E16" s="29"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="8" t="s">
+      <c r="F22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="35"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="30"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="27"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="8" t="s">
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="35"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="35"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="31">
+        <v>5</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="25">
-        <v>4</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="27"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="25">
-        <v>5</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+    </row>
+    <row r="27" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
+  <mergeCells count="16">
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="E9:H9"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E7:H8"/>
-    <mergeCell ref="E5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
